--- a/Traditional Finance/WU_MODEL.xlsx
+++ b/Traditional Finance/WU_MODEL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Models\Traditional Finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7B0DDB-56F8-45AE-80B9-D5B090A85A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B89752-A4EC-491E-A156-735B61E2C6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="145">
   <si>
     <t>Price</t>
   </si>
@@ -556,6 +556,18 @@
   </si>
   <si>
     <t>YOY Growth</t>
+  </si>
+  <si>
+    <t>Down to 4035 to 4135</t>
+  </si>
+  <si>
+    <t>19% to 21% operating margin</t>
+  </si>
+  <si>
+    <t>1.65 to 1.75 EPS</t>
+  </si>
+  <si>
+    <t>Partner with Solana for digital asset network</t>
   </si>
 </sst>
 </file>
@@ -565,13 +577,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -756,64 +774,66 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1153,7 +1173,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1184,10 +1204,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>8.0500000000000007</v>
+        <v>8.32</v>
       </c>
       <c r="C4" s="2">
-        <v>45875</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1195,7 +1215,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>327.9</v>
+        <v>317.8</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1207,7 +1227,7 @@
       </c>
       <c r="B6" s="1">
         <f xml:space="preserve"> B4 * B5</f>
-        <v>2639.5950000000003</v>
+        <v>2644.096</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1223,13 +1243,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>2750</v>
+        <v>2590</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="1">
-        <v>3.16</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1238,13 +1258,13 @@
       </c>
       <c r="B9" s="1">
         <f>B6 - B7 + B8</f>
-        <v>4369.5950000000003</v>
+        <v>4214.0959999999995</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="1">
-        <v>2.72</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1252,7 +1272,7 @@
         <v>59</v>
       </c>
       <c r="B11" s="1">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1260,7 +1280,7 @@
         <v>60</v>
       </c>
       <c r="B12" s="1">
-        <v>2.97</v>
+        <v>3.069</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1268,7 +1288,7 @@
         <v>61</v>
       </c>
       <c r="B13" s="1">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1276,7 +1296,7 @@
         <v>62</v>
       </c>
       <c r="B14" s="1">
-        <v>4.8</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1284,7 +1304,7 @@
         <v>63</v>
       </c>
       <c r="B15" s="1">
-        <v>4.7</v>
+        <v>4.8899999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1292,7 +1312,7 @@
         <v>64</v>
       </c>
       <c r="B16" s="1">
-        <v>3.06</v>
+        <v>3.87</v>
       </c>
     </row>
   </sheetData>
@@ -1305,9 +1325,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E38C8F-3B6A-4584-925C-61BD108C4B76}">
   <dimension ref="A1:AL92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD56" sqref="AD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1507,6 +1527,9 @@
       <c r="AC3" s="1">
         <v>885</v>
       </c>
+      <c r="AD3" s="1">
+        <v>878</v>
+      </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
@@ -1589,6 +1612,9 @@
       </c>
       <c r="AC4" s="1">
         <v>141</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>154.6</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
@@ -1620,7 +1646,7 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3">
-        <f t="shared" ref="D6:AC6" si="0">SUM(D3:D4)</f>
+        <f t="shared" ref="D6:AD6" si="0">SUM(D3:D4)</f>
         <v>1336.9</v>
       </c>
       <c r="E6" s="3">
@@ -1721,7 +1747,10 @@
         <f t="shared" si="0"/>
         <v>1026</v>
       </c>
-      <c r="AD6" s="4"/>
+      <c r="AD6" s="3">
+        <f t="shared" si="0"/>
+        <v>1032.5999999999999</v>
+      </c>
       <c r="AE6" s="4"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
@@ -1808,6 +1837,9 @@
       <c r="AC7" s="1">
         <v>642.79999999999995</v>
       </c>
+      <c r="AD7" s="1">
+        <v>643.20000000000005</v>
+      </c>
     </row>
     <row r="8" spans="1:32" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -1844,7 +1876,7 @@
         <v>536.79999999999995</v>
       </c>
       <c r="K8" s="4">
-        <f t="shared" ref="K8:AC8" si="3">K6 -K7</f>
+        <f t="shared" ref="K8:AD8" si="3">K6 -K7</f>
         <v>512.59999999999991</v>
       </c>
       <c r="L8" s="4">
@@ -1918,6 +1950,10 @@
       <c r="AC8" s="4">
         <f t="shared" si="3"/>
         <v>383.20000000000005</v>
+      </c>
+      <c r="AD8" s="4">
+        <f t="shared" si="3"/>
+        <v>389.39999999999986</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
@@ -2004,6 +2040,9 @@
       <c r="AC9" s="17">
         <v>190.6</v>
       </c>
+      <c r="AD9" s="1">
+        <v>187.5</v>
+      </c>
     </row>
     <row r="10" spans="1:32" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -2027,7 +2066,7 @@
         <v>226.50000000000006</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" ref="H10:AC10" si="5">H8-SUM(H9:H9)</f>
+        <f t="shared" ref="H10:AD10" si="5">H8-SUM(H9:H9)</f>
         <v>233.20000000000005</v>
       </c>
       <c r="I10" s="4">
@@ -2114,6 +2153,10 @@
         <f t="shared" si="5"/>
         <v>192.60000000000005</v>
       </c>
+      <c r="AD10" s="4">
+        <f t="shared" si="5"/>
+        <v>201.89999999999986</v>
+      </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
@@ -2197,6 +2240,9 @@
       <c r="AC11" s="1">
         <v>159.69999999999999</v>
       </c>
+      <c r="AD11" s="1">
+        <v>167.6</v>
+      </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
@@ -2280,6 +2326,9 @@
       <c r="AC12" s="1">
         <v>37.6</v>
       </c>
+      <c r="AD12" s="1">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:32" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
@@ -2389,6 +2438,10 @@
         <f>AC11-AC12</f>
         <v>122.1</v>
       </c>
+      <c r="AD13" s="5">
+        <f>AD11-AD12</f>
+        <v>139.6</v>
+      </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
@@ -2473,6 +2526,9 @@
       <c r="AC14" s="30">
         <v>0.37</v>
       </c>
+      <c r="AD14" s="1">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
@@ -2556,13 +2612,16 @@
       <c r="AC15" s="1">
         <v>0.37</v>
       </c>
+      <c r="AD15" s="1">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="F16" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="2:29" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="33" t="s">
         <v>40</v>
       </c>
@@ -2595,7 +2654,7 @@
         <v>-2.7452779689531304E-2</v>
       </c>
       <c r="L17" s="34">
-        <f t="shared" ref="L17:AC17" si="9">(L6/H6) - 1</f>
+        <f t="shared" ref="L17:AD17" si="9">(L6/H6) - 1</f>
         <v>1.6806722689075571E-2</v>
       </c>
       <c r="M17" s="34">
@@ -2666,8 +2725,12 @@
         <f t="shared" si="9"/>
         <v>-3.7884471117779484E-2</v>
       </c>
-    </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="34">
+        <f t="shared" si="9"/>
+        <v>-3.2818532818533752E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>103</v>
       </c>
@@ -2749,8 +2812,11 @@
       <c r="AC18" s="6">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>104</v>
       </c>
@@ -2832,8 +2898,11 @@
       <c r="AC19" s="6">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="6">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>105</v>
       </c>
@@ -2915,8 +2984,11 @@
       <c r="AC20" s="6">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="6">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30" x14ac:dyDescent="0.2">
       <c r="R21" s="6"/>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
@@ -2929,7 +3001,7 @@
       <c r="AA21" s="7"/>
       <c r="AB21" s="6"/>
     </row>
-    <row r="22" spans="2:29" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:30" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
         <v>44</v>
       </c>
@@ -3011,11 +3083,14 @@
       <c r="AC22" s="6">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.2">
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="2:29" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:30" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="31" t="s">
         <v>25</v>
       </c>
@@ -3098,8 +3173,11 @@
       <c r="AC24" s="8">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="25" spans="2:29" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="AD24" s="8">
+        <v>260.39999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="2:30" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B25" s="28" t="s">
         <v>24</v>
       </c>
@@ -3182,8 +3260,11 @@
       <c r="AC25" s="1">
         <v>26.4</v>
       </c>
-    </row>
-    <row r="26" spans="2:29" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="AD25" s="1">
+        <v>31.3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:30" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="31" t="s">
         <v>13</v>
       </c>
@@ -3291,13 +3372,17 @@
         <f>AC24-AC25</f>
         <v>-26.099999999999998</v>
       </c>
-    </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="8">
+        <f>AD24-AD25</f>
+        <v>229.09999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B27" s="28" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B28" s="28"/>
       <c r="R28" s="29"/>
       <c r="S28" s="29"/>
@@ -3307,7 +3392,7 @@
       <c r="W28" s="29"/>
       <c r="X28" s="29"/>
     </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B29" s="28" t="s">
         <v>36</v>
       </c>
@@ -3411,8 +3496,12 @@
         <f>IF(Y26=0,IF(AC26=0,0,NA()),(AC26-Y26)/ABS(Y26))</f>
         <v>0.56788079470198671</v>
       </c>
-    </row>
-    <row r="31" spans="2:29" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="AD29" s="6">
+        <f>IF(Z26=0,IF(AD26=0,0,NA()),(AD26-Z26)/ABS(Z26))</f>
+        <v>-2.9237288135593367E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:30" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
         <v>73</v>
       </c>
@@ -3494,8 +3583,11 @@
       <c r="AC31" s="6">
         <v>-0.11</v>
       </c>
-    </row>
-    <row r="32" spans="2:29" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="AD31" s="6">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="32" spans="2:30" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
         <v>74</v>
       </c>
@@ -3577,8 +3669,11 @@
       <c r="AC32" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:29" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="AD32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
         <v>75</v>
       </c>
@@ -3660,8 +3755,11 @@
       <c r="AC33" s="6">
         <v>-0.23</v>
       </c>
-    </row>
-    <row r="34" spans="1:29" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="AD33" s="6">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
         <v>76</v>
       </c>
@@ -3743,8 +3841,11 @@
       <c r="AC34" s="6">
         <v>-0.13</v>
       </c>
-    </row>
-    <row r="35" spans="1:29" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="AD34" s="6">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
         <v>77</v>
       </c>
@@ -3826,9 +3927,12 @@
       <c r="AC35" s="6">
         <v>-0.02</v>
       </c>
-    </row>
-    <row r="36" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:29" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="AD35" s="6">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:30" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
         <v>78</v>
       </c>
@@ -3910,8 +4014,11 @@
       <c r="AC37" s="6">
         <v>-0.01</v>
       </c>
-    </row>
-    <row r="38" spans="1:29" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="AD37" s="6">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
         <v>79</v>
       </c>
@@ -3993,8 +4100,11 @@
       <c r="AC38" s="6">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="39" spans="1:29" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="AD38" s="6">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
         <v>80</v>
       </c>
@@ -4076,8 +4186,11 @@
       <c r="AC39" s="6">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="40" spans="1:29" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="AD39" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
         <v>81</v>
       </c>
@@ -4159,8 +4272,11 @@
       <c r="AC40" s="6">
         <v>-0.05</v>
       </c>
-    </row>
-    <row r="41" spans="1:29" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="AD40" s="6">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
         <v>82</v>
       </c>
@@ -4242,9 +4358,12 @@
       <c r="AC41" s="6">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="42" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:29" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="AD41" s="6">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:30" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>83</v>
       </c>
@@ -4329,8 +4448,11 @@
       <c r="AC43" s="6">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="44" spans="1:29" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="AD43" s="6">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B44" s="6" t="s">
         <v>85</v>
       </c>
@@ -4412,8 +4534,11 @@
       <c r="AC44" s="6">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="45" spans="1:29" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="AD44" s="6">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
         <v>86</v>
       </c>
@@ -4495,8 +4620,11 @@
       <c r="AC45" s="6">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="46" spans="1:29" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="AD45" s="6">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
         <v>87</v>
       </c>
@@ -4578,8 +4706,11 @@
       <c r="AC46" s="6">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="47" spans="1:29" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="AD46" s="6">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
         <v>88</v>
       </c>
@@ -4661,8 +4792,11 @@
       <c r="AC47" s="6">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="48" spans="1:29" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="AD47" s="6">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
         <v>106</v>
       </c>
@@ -4742,6 +4876,9 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="AC48" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AD48" s="6">
         <v>0.28999999999999998</v>
       </c>
     </row>
@@ -4783,7 +4920,9 @@
       <c r="AC50" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="AD50" s="12"/>
+      <c r="AD50" s="44" t="s">
+        <v>141</v>
+      </c>
       <c r="AE50" s="12"/>
       <c r="AF50" s="12"/>
       <c r="AG50" s="12"/>
@@ -4798,12 +4937,18 @@
       <c r="AC51" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="AD51" s="45" t="s">
+        <v>142</v>
+      </c>
       <c r="AL51" s="16"/>
     </row>
     <row r="52" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B52" s="15"/>
       <c r="AC52" s="17" t="s">
         <v>91</v>
+      </c>
+      <c r="AD52" s="45" t="s">
+        <v>143</v>
       </c>
       <c r="AL52" s="16"/>
     </row>
@@ -4901,7 +5046,9 @@
       <c r="AA55" s="12"/>
       <c r="AB55" s="12"/>
       <c r="AC55" s="12"/>
-      <c r="AD55" s="12"/>
+      <c r="AD55" s="44" t="s">
+        <v>144</v>
+      </c>
       <c r="AE55" s="14"/>
     </row>
     <row r="56" spans="2:38" x14ac:dyDescent="0.2">
@@ -5080,393 +5227,393 @@
     </row>
     <row r="69" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="15"/>
-      <c r="C69" s="40"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="40"/>
-      <c r="F69" s="40"/>
-      <c r="G69" s="40"/>
-      <c r="H69" s="40"/>
-      <c r="I69" s="40"/>
-      <c r="J69" s="40"/>
-      <c r="K69" s="40"/>
-      <c r="L69" s="40"/>
-      <c r="M69" s="40"/>
-      <c r="N69" s="40"/>
-      <c r="O69" s="40"/>
-      <c r="P69" s="40"/>
-      <c r="Q69" s="40"/>
-      <c r="R69" s="40"/>
-      <c r="S69" s="40"/>
-      <c r="T69" s="40"/>
-      <c r="U69" s="40"/>
-      <c r="V69" s="40"/>
-      <c r="W69" s="40"/>
-      <c r="X69" s="40"/>
-      <c r="Y69" s="40"/>
-      <c r="Z69" s="40"/>
-      <c r="AA69" s="40"/>
-      <c r="AB69" s="40"/>
-      <c r="AC69" s="40"/>
-      <c r="AD69" s="40"/>
-      <c r="AE69" s="40"/>
-      <c r="AF69" s="40"/>
-      <c r="AG69" s="40"/>
-      <c r="AH69" s="40"/>
-      <c r="AI69" s="40"/>
-      <c r="AJ69" s="40"/>
-      <c r="AK69" s="40"/>
-      <c r="AL69" s="41"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="42"/>
+      <c r="M69" s="42"/>
+      <c r="N69" s="42"/>
+      <c r="O69" s="42"/>
+      <c r="P69" s="42"/>
+      <c r="Q69" s="42"/>
+      <c r="R69" s="42"/>
+      <c r="S69" s="42"/>
+      <c r="T69" s="42"/>
+      <c r="U69" s="42"/>
+      <c r="V69" s="42"/>
+      <c r="W69" s="42"/>
+      <c r="X69" s="42"/>
+      <c r="Y69" s="42"/>
+      <c r="Z69" s="42"/>
+      <c r="AA69" s="42"/>
+      <c r="AB69" s="42"/>
+      <c r="AC69" s="42"/>
+      <c r="AD69" s="42"/>
+      <c r="AE69" s="42"/>
+      <c r="AF69" s="42"/>
+      <c r="AG69" s="42"/>
+      <c r="AH69" s="42"/>
+      <c r="AI69" s="42"/>
+      <c r="AJ69" s="42"/>
+      <c r="AK69" s="42"/>
+      <c r="AL69" s="43"/>
     </row>
     <row r="70" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="15"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="40"/>
-      <c r="F70" s="40"/>
-      <c r="G70" s="40"/>
-      <c r="H70" s="40"/>
-      <c r="I70" s="40"/>
-      <c r="J70" s="40"/>
-      <c r="K70" s="40"/>
-      <c r="L70" s="40"/>
-      <c r="M70" s="40"/>
-      <c r="N70" s="40"/>
-      <c r="O70" s="40"/>
-      <c r="P70" s="40"/>
-      <c r="Q70" s="40"/>
-      <c r="R70" s="40"/>
-      <c r="S70" s="40"/>
-      <c r="T70" s="40"/>
-      <c r="U70" s="40"/>
-      <c r="V70" s="40"/>
-      <c r="W70" s="40"/>
-      <c r="X70" s="40"/>
-      <c r="Y70" s="40"/>
-      <c r="Z70" s="40"/>
-      <c r="AA70" s="40"/>
-      <c r="AB70" s="40"/>
-      <c r="AC70" s="40"/>
-      <c r="AD70" s="40"/>
-      <c r="AE70" s="40"/>
-      <c r="AF70" s="40"/>
-      <c r="AG70" s="40"/>
-      <c r="AH70" s="40"/>
-      <c r="AI70" s="40"/>
-      <c r="AJ70" s="40"/>
-      <c r="AK70" s="40"/>
-      <c r="AL70" s="41"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
+      <c r="K70" s="42"/>
+      <c r="L70" s="42"/>
+      <c r="M70" s="42"/>
+      <c r="N70" s="42"/>
+      <c r="O70" s="42"/>
+      <c r="P70" s="42"/>
+      <c r="Q70" s="42"/>
+      <c r="R70" s="42"/>
+      <c r="S70" s="42"/>
+      <c r="T70" s="42"/>
+      <c r="U70" s="42"/>
+      <c r="V70" s="42"/>
+      <c r="W70" s="42"/>
+      <c r="X70" s="42"/>
+      <c r="Y70" s="42"/>
+      <c r="Z70" s="42"/>
+      <c r="AA70" s="42"/>
+      <c r="AB70" s="42"/>
+      <c r="AC70" s="42"/>
+      <c r="AD70" s="42"/>
+      <c r="AE70" s="42"/>
+      <c r="AF70" s="42"/>
+      <c r="AG70" s="42"/>
+      <c r="AH70" s="42"/>
+      <c r="AI70" s="42"/>
+      <c r="AJ70" s="42"/>
+      <c r="AK70" s="42"/>
+      <c r="AL70" s="43"/>
     </row>
     <row r="71" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="15"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="40"/>
-      <c r="F71" s="40"/>
-      <c r="G71" s="40"/>
-      <c r="H71" s="40"/>
-      <c r="I71" s="40"/>
-      <c r="J71" s="40"/>
-      <c r="K71" s="40"/>
-      <c r="L71" s="40"/>
-      <c r="M71" s="40"/>
-      <c r="N71" s="40"/>
-      <c r="O71" s="40"/>
-      <c r="P71" s="40"/>
-      <c r="Q71" s="40"/>
-      <c r="R71" s="40"/>
-      <c r="S71" s="40"/>
-      <c r="T71" s="40"/>
-      <c r="U71" s="40"/>
-      <c r="V71" s="40"/>
-      <c r="W71" s="40"/>
-      <c r="X71" s="40"/>
-      <c r="Y71" s="40"/>
-      <c r="Z71" s="40"/>
-      <c r="AA71" s="40"/>
-      <c r="AB71" s="40"/>
-      <c r="AC71" s="40"/>
-      <c r="AD71" s="40"/>
-      <c r="AE71" s="40"/>
-      <c r="AF71" s="40"/>
-      <c r="AG71" s="40"/>
-      <c r="AH71" s="40"/>
-      <c r="AI71" s="40"/>
-      <c r="AJ71" s="40"/>
-      <c r="AK71" s="40"/>
-      <c r="AL71" s="41"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="42"/>
+      <c r="K71" s="42"/>
+      <c r="L71" s="42"/>
+      <c r="M71" s="42"/>
+      <c r="N71" s="42"/>
+      <c r="O71" s="42"/>
+      <c r="P71" s="42"/>
+      <c r="Q71" s="42"/>
+      <c r="R71" s="42"/>
+      <c r="S71" s="42"/>
+      <c r="T71" s="42"/>
+      <c r="U71" s="42"/>
+      <c r="V71" s="42"/>
+      <c r="W71" s="42"/>
+      <c r="X71" s="42"/>
+      <c r="Y71" s="42"/>
+      <c r="Z71" s="42"/>
+      <c r="AA71" s="42"/>
+      <c r="AB71" s="42"/>
+      <c r="AC71" s="42"/>
+      <c r="AD71" s="42"/>
+      <c r="AE71" s="42"/>
+      <c r="AF71" s="42"/>
+      <c r="AG71" s="42"/>
+      <c r="AH71" s="42"/>
+      <c r="AI71" s="42"/>
+      <c r="AJ71" s="42"/>
+      <c r="AK71" s="42"/>
+      <c r="AL71" s="43"/>
     </row>
     <row r="72" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="15"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="40"/>
-      <c r="F72" s="40"/>
-      <c r="G72" s="40"/>
-      <c r="H72" s="40"/>
-      <c r="I72" s="40"/>
-      <c r="J72" s="40"/>
-      <c r="K72" s="40"/>
-      <c r="L72" s="40"/>
-      <c r="M72" s="40"/>
-      <c r="N72" s="40"/>
-      <c r="O72" s="40"/>
-      <c r="P72" s="40"/>
-      <c r="Q72" s="40"/>
-      <c r="R72" s="40"/>
-      <c r="S72" s="40"/>
-      <c r="T72" s="40"/>
-      <c r="U72" s="40"/>
-      <c r="V72" s="40"/>
-      <c r="W72" s="40"/>
-      <c r="X72" s="40"/>
-      <c r="Y72" s="40"/>
-      <c r="Z72" s="40"/>
-      <c r="AA72" s="40"/>
-      <c r="AB72" s="40"/>
-      <c r="AC72" s="40"/>
-      <c r="AD72" s="40"/>
-      <c r="AE72" s="40"/>
-      <c r="AF72" s="40"/>
-      <c r="AG72" s="40"/>
-      <c r="AH72" s="40"/>
-      <c r="AI72" s="40"/>
-      <c r="AJ72" s="40"/>
-      <c r="AK72" s="40"/>
-      <c r="AL72" s="41"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="42"/>
+      <c r="M72" s="42"/>
+      <c r="N72" s="42"/>
+      <c r="O72" s="42"/>
+      <c r="P72" s="42"/>
+      <c r="Q72" s="42"/>
+      <c r="R72" s="42"/>
+      <c r="S72" s="42"/>
+      <c r="T72" s="42"/>
+      <c r="U72" s="42"/>
+      <c r="V72" s="42"/>
+      <c r="W72" s="42"/>
+      <c r="X72" s="42"/>
+      <c r="Y72" s="42"/>
+      <c r="Z72" s="42"/>
+      <c r="AA72" s="42"/>
+      <c r="AB72" s="42"/>
+      <c r="AC72" s="42"/>
+      <c r="AD72" s="42"/>
+      <c r="AE72" s="42"/>
+      <c r="AF72" s="42"/>
+      <c r="AG72" s="42"/>
+      <c r="AH72" s="42"/>
+      <c r="AI72" s="42"/>
+      <c r="AJ72" s="42"/>
+      <c r="AK72" s="42"/>
+      <c r="AL72" s="43"/>
     </row>
     <row r="73" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="15"/>
-      <c r="C73" s="40"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="40"/>
-      <c r="F73" s="40"/>
-      <c r="G73" s="40"/>
-      <c r="H73" s="40"/>
-      <c r="I73" s="40"/>
-      <c r="J73" s="40"/>
-      <c r="K73" s="40"/>
-      <c r="L73" s="40"/>
-      <c r="M73" s="40"/>
-      <c r="N73" s="40"/>
-      <c r="O73" s="40"/>
-      <c r="P73" s="40"/>
-      <c r="Q73" s="40"/>
-      <c r="R73" s="40"/>
-      <c r="S73" s="40"/>
-      <c r="T73" s="40"/>
-      <c r="U73" s="40"/>
-      <c r="V73" s="40"/>
-      <c r="W73" s="40"/>
-      <c r="X73" s="40"/>
-      <c r="Y73" s="40"/>
-      <c r="Z73" s="40"/>
-      <c r="AA73" s="40"/>
-      <c r="AB73" s="40"/>
-      <c r="AC73" s="40"/>
-      <c r="AD73" s="40"/>
-      <c r="AE73" s="40"/>
-      <c r="AF73" s="40"/>
-      <c r="AG73" s="40"/>
-      <c r="AH73" s="40"/>
-      <c r="AI73" s="40"/>
-      <c r="AJ73" s="40"/>
-      <c r="AK73" s="40"/>
-      <c r="AL73" s="41"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="42"/>
+      <c r="L73" s="42"/>
+      <c r="M73" s="42"/>
+      <c r="N73" s="42"/>
+      <c r="O73" s="42"/>
+      <c r="P73" s="42"/>
+      <c r="Q73" s="42"/>
+      <c r="R73" s="42"/>
+      <c r="S73" s="42"/>
+      <c r="T73" s="42"/>
+      <c r="U73" s="42"/>
+      <c r="V73" s="42"/>
+      <c r="W73" s="42"/>
+      <c r="X73" s="42"/>
+      <c r="Y73" s="42"/>
+      <c r="Z73" s="42"/>
+      <c r="AA73" s="42"/>
+      <c r="AB73" s="42"/>
+      <c r="AC73" s="42"/>
+      <c r="AD73" s="42"/>
+      <c r="AE73" s="42"/>
+      <c r="AF73" s="42"/>
+      <c r="AG73" s="42"/>
+      <c r="AH73" s="42"/>
+      <c r="AI73" s="42"/>
+      <c r="AJ73" s="42"/>
+      <c r="AK73" s="42"/>
+      <c r="AL73" s="43"/>
     </row>
     <row r="74" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="15"/>
-      <c r="C74" s="40"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="40"/>
-      <c r="F74" s="40"/>
-      <c r="G74" s="40"/>
-      <c r="H74" s="40"/>
-      <c r="I74" s="40"/>
-      <c r="J74" s="40"/>
-      <c r="K74" s="40"/>
-      <c r="L74" s="40"/>
-      <c r="M74" s="40"/>
-      <c r="N74" s="40"/>
-      <c r="O74" s="40"/>
-      <c r="P74" s="40"/>
-      <c r="Q74" s="40"/>
-      <c r="R74" s="40"/>
-      <c r="S74" s="40"/>
-      <c r="T74" s="40"/>
-      <c r="U74" s="40"/>
-      <c r="V74" s="40"/>
-      <c r="W74" s="40"/>
-      <c r="X74" s="40"/>
-      <c r="Y74" s="40"/>
-      <c r="Z74" s="40"/>
-      <c r="AA74" s="40"/>
-      <c r="AB74" s="40"/>
-      <c r="AC74" s="40"/>
-      <c r="AD74" s="40"/>
-      <c r="AE74" s="40"/>
-      <c r="AF74" s="40"/>
-      <c r="AG74" s="40"/>
-      <c r="AH74" s="40"/>
-      <c r="AI74" s="40"/>
-      <c r="AJ74" s="40"/>
-      <c r="AK74" s="40"/>
-      <c r="AL74" s="41"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="42"/>
+      <c r="L74" s="42"/>
+      <c r="M74" s="42"/>
+      <c r="N74" s="42"/>
+      <c r="O74" s="42"/>
+      <c r="P74" s="42"/>
+      <c r="Q74" s="42"/>
+      <c r="R74" s="42"/>
+      <c r="S74" s="42"/>
+      <c r="T74" s="42"/>
+      <c r="U74" s="42"/>
+      <c r="V74" s="42"/>
+      <c r="W74" s="42"/>
+      <c r="X74" s="42"/>
+      <c r="Y74" s="42"/>
+      <c r="Z74" s="42"/>
+      <c r="AA74" s="42"/>
+      <c r="AB74" s="42"/>
+      <c r="AC74" s="42"/>
+      <c r="AD74" s="42"/>
+      <c r="AE74" s="42"/>
+      <c r="AF74" s="42"/>
+      <c r="AG74" s="42"/>
+      <c r="AH74" s="42"/>
+      <c r="AI74" s="42"/>
+      <c r="AJ74" s="42"/>
+      <c r="AK74" s="42"/>
+      <c r="AL74" s="43"/>
     </row>
     <row r="75" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="15"/>
-      <c r="C75" s="40"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="40"/>
-      <c r="F75" s="40"/>
-      <c r="G75" s="40"/>
-      <c r="H75" s="40"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="40"/>
-      <c r="K75" s="40"/>
-      <c r="L75" s="40"/>
-      <c r="M75" s="40"/>
-      <c r="N75" s="40"/>
-      <c r="O75" s="40"/>
-      <c r="P75" s="40"/>
-      <c r="Q75" s="40"/>
-      <c r="R75" s="40"/>
-      <c r="S75" s="40"/>
-      <c r="T75" s="40"/>
-      <c r="U75" s="40"/>
-      <c r="V75" s="40"/>
-      <c r="W75" s="40"/>
-      <c r="X75" s="40"/>
-      <c r="Y75" s="40"/>
-      <c r="Z75" s="40"/>
-      <c r="AA75" s="40"/>
-      <c r="AB75" s="40"/>
-      <c r="AC75" s="40"/>
-      <c r="AD75" s="40"/>
-      <c r="AE75" s="40"/>
-      <c r="AF75" s="40"/>
-      <c r="AG75" s="40"/>
-      <c r="AH75" s="40"/>
-      <c r="AI75" s="40"/>
-      <c r="AJ75" s="40"/>
-      <c r="AK75" s="40"/>
-      <c r="AL75" s="41"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42"/>
+      <c r="K75" s="42"/>
+      <c r="L75" s="42"/>
+      <c r="M75" s="42"/>
+      <c r="N75" s="42"/>
+      <c r="O75" s="42"/>
+      <c r="P75" s="42"/>
+      <c r="Q75" s="42"/>
+      <c r="R75" s="42"/>
+      <c r="S75" s="42"/>
+      <c r="T75" s="42"/>
+      <c r="U75" s="42"/>
+      <c r="V75" s="42"/>
+      <c r="W75" s="42"/>
+      <c r="X75" s="42"/>
+      <c r="Y75" s="42"/>
+      <c r="Z75" s="42"/>
+      <c r="AA75" s="42"/>
+      <c r="AB75" s="42"/>
+      <c r="AC75" s="42"/>
+      <c r="AD75" s="42"/>
+      <c r="AE75" s="42"/>
+      <c r="AF75" s="42"/>
+      <c r="AG75" s="42"/>
+      <c r="AH75" s="42"/>
+      <c r="AI75" s="42"/>
+      <c r="AJ75" s="42"/>
+      <c r="AK75" s="42"/>
+      <c r="AL75" s="43"/>
     </row>
     <row r="76" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="15"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="40"/>
-      <c r="F76" s="40"/>
-      <c r="G76" s="40"/>
-      <c r="H76" s="40"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="40"/>
-      <c r="K76" s="40"/>
-      <c r="L76" s="40"/>
-      <c r="M76" s="40"/>
-      <c r="N76" s="40"/>
-      <c r="O76" s="40"/>
-      <c r="P76" s="40"/>
-      <c r="Q76" s="40"/>
-      <c r="R76" s="40"/>
-      <c r="S76" s="40"/>
-      <c r="T76" s="40"/>
-      <c r="U76" s="40"/>
-      <c r="V76" s="40"/>
-      <c r="W76" s="40"/>
-      <c r="X76" s="40"/>
-      <c r="Y76" s="40"/>
-      <c r="Z76" s="40"/>
-      <c r="AA76" s="40"/>
-      <c r="AB76" s="40"/>
-      <c r="AC76" s="40"/>
-      <c r="AD76" s="40"/>
-      <c r="AE76" s="40"/>
-      <c r="AF76" s="40"/>
-      <c r="AG76" s="40"/>
-      <c r="AH76" s="40"/>
-      <c r="AI76" s="40"/>
-      <c r="AJ76" s="40"/>
-      <c r="AK76" s="40"/>
-      <c r="AL76" s="41"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="42"/>
+      <c r="K76" s="42"/>
+      <c r="L76" s="42"/>
+      <c r="M76" s="42"/>
+      <c r="N76" s="42"/>
+      <c r="O76" s="42"/>
+      <c r="P76" s="42"/>
+      <c r="Q76" s="42"/>
+      <c r="R76" s="42"/>
+      <c r="S76" s="42"/>
+      <c r="T76" s="42"/>
+      <c r="U76" s="42"/>
+      <c r="V76" s="42"/>
+      <c r="W76" s="42"/>
+      <c r="X76" s="42"/>
+      <c r="Y76" s="42"/>
+      <c r="Z76" s="42"/>
+      <c r="AA76" s="42"/>
+      <c r="AB76" s="42"/>
+      <c r="AC76" s="42"/>
+      <c r="AD76" s="42"/>
+      <c r="AE76" s="42"/>
+      <c r="AF76" s="42"/>
+      <c r="AG76" s="42"/>
+      <c r="AH76" s="42"/>
+      <c r="AI76" s="42"/>
+      <c r="AJ76" s="42"/>
+      <c r="AK76" s="42"/>
+      <c r="AL76" s="43"/>
     </row>
     <row r="77" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="15"/>
-      <c r="C77" s="40"/>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="40"/>
-      <c r="K77" s="40"/>
-      <c r="L77" s="40"/>
-      <c r="M77" s="40"/>
-      <c r="N77" s="40"/>
-      <c r="O77" s="40"/>
-      <c r="P77" s="40"/>
-      <c r="Q77" s="40"/>
-      <c r="R77" s="40"/>
-      <c r="S77" s="40"/>
-      <c r="T77" s="40"/>
-      <c r="U77" s="40"/>
-      <c r="V77" s="40"/>
-      <c r="W77" s="40"/>
-      <c r="X77" s="40"/>
-      <c r="Y77" s="40"/>
-      <c r="Z77" s="40"/>
-      <c r="AA77" s="40"/>
-      <c r="AB77" s="40"/>
-      <c r="AC77" s="40"/>
-      <c r="AD77" s="40"/>
-      <c r="AE77" s="40"/>
-      <c r="AF77" s="40"/>
-      <c r="AG77" s="40"/>
-      <c r="AH77" s="40"/>
-      <c r="AI77" s="40"/>
-      <c r="AJ77" s="40"/>
-      <c r="AK77" s="40"/>
-      <c r="AL77" s="41"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="42"/>
+      <c r="K77" s="42"/>
+      <c r="L77" s="42"/>
+      <c r="M77" s="42"/>
+      <c r="N77" s="42"/>
+      <c r="O77" s="42"/>
+      <c r="P77" s="42"/>
+      <c r="Q77" s="42"/>
+      <c r="R77" s="42"/>
+      <c r="S77" s="42"/>
+      <c r="T77" s="42"/>
+      <c r="U77" s="42"/>
+      <c r="V77" s="42"/>
+      <c r="W77" s="42"/>
+      <c r="X77" s="42"/>
+      <c r="Y77" s="42"/>
+      <c r="Z77" s="42"/>
+      <c r="AA77" s="42"/>
+      <c r="AB77" s="42"/>
+      <c r="AC77" s="42"/>
+      <c r="AD77" s="42"/>
+      <c r="AE77" s="42"/>
+      <c r="AF77" s="42"/>
+      <c r="AG77" s="42"/>
+      <c r="AH77" s="42"/>
+      <c r="AI77" s="42"/>
+      <c r="AJ77" s="42"/>
+      <c r="AK77" s="42"/>
+      <c r="AL77" s="43"/>
     </row>
     <row r="78" spans="2:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="15"/>
-      <c r="C78" s="40"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="40"/>
-      <c r="F78" s="40"/>
-      <c r="G78" s="40"/>
-      <c r="H78" s="40"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="40"/>
-      <c r="K78" s="40"/>
-      <c r="L78" s="40"/>
-      <c r="M78" s="40"/>
-      <c r="N78" s="40"/>
-      <c r="O78" s="40"/>
-      <c r="P78" s="40"/>
-      <c r="Q78" s="40"/>
-      <c r="R78" s="40"/>
-      <c r="S78" s="40"/>
-      <c r="T78" s="40"/>
-      <c r="U78" s="40"/>
-      <c r="V78" s="40"/>
-      <c r="W78" s="40"/>
-      <c r="X78" s="40"/>
-      <c r="Y78" s="40"/>
-      <c r="Z78" s="40"/>
-      <c r="AA78" s="40"/>
-      <c r="AB78" s="40"/>
-      <c r="AC78" s="40"/>
-      <c r="AD78" s="40"/>
-      <c r="AE78" s="40"/>
-      <c r="AF78" s="40"/>
-      <c r="AG78" s="40"/>
-      <c r="AH78" s="40"/>
-      <c r="AI78" s="40"/>
-      <c r="AJ78" s="40"/>
-      <c r="AK78" s="40"/>
-      <c r="AL78" s="41"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="42"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="42"/>
+      <c r="M78" s="42"/>
+      <c r="N78" s="42"/>
+      <c r="O78" s="42"/>
+      <c r="P78" s="42"/>
+      <c r="Q78" s="42"/>
+      <c r="R78" s="42"/>
+      <c r="S78" s="42"/>
+      <c r="T78" s="42"/>
+      <c r="U78" s="42"/>
+      <c r="V78" s="42"/>
+      <c r="W78" s="42"/>
+      <c r="X78" s="42"/>
+      <c r="Y78" s="42"/>
+      <c r="Z78" s="42"/>
+      <c r="AA78" s="42"/>
+      <c r="AB78" s="42"/>
+      <c r="AC78" s="42"/>
+      <c r="AD78" s="42"/>
+      <c r="AE78" s="42"/>
+      <c r="AF78" s="42"/>
+      <c r="AG78" s="42"/>
+      <c r="AH78" s="42"/>
+      <c r="AI78" s="42"/>
+      <c r="AJ78" s="42"/>
+      <c r="AK78" s="42"/>
+      <c r="AL78" s="43"/>
     </row>
     <row r="79" spans="2:38" ht="15" x14ac:dyDescent="0.25">
       <c r="B79" s="15"/>
@@ -5587,7 +5734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3B8421-5B62-4633-92BC-CFE882A5F958}">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -6316,22 +6463,22 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="S16" s="42" t="s">
+      <c r="S16" s="40" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="41" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="6">
-        <f t="shared" ref="B18:R18" si="0">(C2/B2)-1</f>
+        <f t="shared" ref="C18:R18" si="0">(C2/B2)-1</f>
         <v>2.6347497790987218E-2</v>
       </c>
       <c r="D18" s="6">
@@ -6821,18 +6968,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6854,6 +7001,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D65B96D-4012-4621-9665-52F685045C2D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
@@ -6867,12 +7022,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>